--- a/natmiOut/OldD2/LR-pairs_lrc2p/Efna5-Ephb6.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Efna5-Ephb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>Ephb6</t>
   </si>
   <si>
-    <t>Neutro</t>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.38296677097106</v>
+        <v>0.386502</v>
       </c>
       <c r="H2">
-        <v>0.38296677097106</v>
+        <v>0.773004</v>
       </c>
       <c r="I2">
-        <v>0.2310940032498789</v>
+        <v>0.2023774294220003</v>
       </c>
       <c r="J2">
-        <v>0.2310940032498789</v>
+        <v>0.1704859662986497</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.462340335761517</v>
+        <v>0.07195550000000001</v>
       </c>
       <c r="N2">
-        <v>0.462340335761517</v>
+        <v>0.143911</v>
       </c>
       <c r="O2">
-        <v>0.2856670437508328</v>
+        <v>0.03873632163709057</v>
       </c>
       <c r="P2">
-        <v>0.2856670437508328</v>
+        <v>0.03266745843446078</v>
       </c>
       <c r="Q2">
-        <v>0.1770609854762639</v>
+        <v>0.027810944661</v>
       </c>
       <c r="R2">
-        <v>0.1770609854762639</v>
+        <v>0.111243778644</v>
       </c>
       <c r="S2">
-        <v>0.06601594073693828</v>
+        <v>0.007839357198178199</v>
       </c>
       <c r="T2">
-        <v>0.06601594073693828</v>
+        <v>0.005569343217720021</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.38296677097106</v>
+        <v>0.386502</v>
       </c>
       <c r="H3">
-        <v>0.38296677097106</v>
+        <v>0.773004</v>
       </c>
       <c r="I3">
-        <v>0.2310940032498789</v>
+        <v>0.2023774294220003</v>
       </c>
       <c r="J3">
-        <v>0.2310940032498789</v>
+        <v>0.1704859662986497</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.093106289003298</v>
+        <v>0.4691353333333333</v>
       </c>
       <c r="N3">
-        <v>0.093106289003298</v>
+        <v>1.407406</v>
       </c>
       <c r="O3">
-        <v>0.0575277480178632</v>
+        <v>0.2525529968289247</v>
       </c>
       <c r="P3">
-        <v>0.0575277480178632</v>
+        <v>0.3194778509315529</v>
       </c>
       <c r="Q3">
-        <v>0.03565661485669135</v>
+        <v>0.181321744604</v>
       </c>
       <c r="R3">
-        <v>0.03565661485669135</v>
+        <v>1.087930467624</v>
       </c>
       <c r="S3">
-        <v>0.01329431758739829</v>
+        <v>0.05111102629106038</v>
       </c>
       <c r="T3">
-        <v>0.01329431758739829</v>
+        <v>0.05446649012708176</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.38296677097106</v>
+        <v>0.386502</v>
       </c>
       <c r="H4">
-        <v>0.38296677097106</v>
+        <v>0.773004</v>
       </c>
       <c r="I4">
-        <v>0.2310940032498789</v>
+        <v>0.2023774294220003</v>
       </c>
       <c r="J4">
-        <v>0.2310940032498789</v>
+        <v>0.1704859662986497</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.06301215749774</v>
+        <v>0.03556466666666667</v>
       </c>
       <c r="N4">
-        <v>1.06301215749774</v>
+        <v>0.106694</v>
       </c>
       <c r="O4">
-        <v>0.6568052082313038</v>
+        <v>0.01914578269786067</v>
       </c>
       <c r="P4">
-        <v>0.6568052082313038</v>
+        <v>0.02421928699130962</v>
       </c>
       <c r="Q4">
-        <v>0.4070983334598894</v>
+        <v>0.013745814796</v>
       </c>
       <c r="R4">
-        <v>0.4070983334598894</v>
+        <v>0.082474888776</v>
       </c>
       <c r="S4">
-        <v>0.1517837449255423</v>
+        <v>0.003874674286665253</v>
       </c>
       <c r="T4">
-        <v>0.1517837449255423</v>
+        <v>0.004129048545777737</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.522573029932645</v>
+        <v>0.386502</v>
       </c>
       <c r="H5">
-        <v>0.522573029932645</v>
+        <v>0.773004</v>
       </c>
       <c r="I5">
-        <v>0.3153367410215326</v>
+        <v>0.2023774294220003</v>
       </c>
       <c r="J5">
-        <v>0.3153367410215326</v>
+        <v>0.1704859662986497</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.462340335761517</v>
+        <v>0.1854883333333334</v>
       </c>
       <c r="N5">
-        <v>0.462340335761517</v>
+        <v>0.5564650000000001</v>
       </c>
       <c r="O5">
-        <v>0.2856670437508328</v>
+        <v>0.09985526804661032</v>
       </c>
       <c r="P5">
-        <v>0.2856670437508328</v>
+        <v>0.1263162458584279</v>
       </c>
       <c r="Q5">
-        <v>0.2416065901189724</v>
+        <v>0.07169161181000001</v>
       </c>
       <c r="R5">
-        <v>0.2416065901189724</v>
+        <v>0.4301496708600001</v>
       </c>
       <c r="S5">
-        <v>0.09008131459364321</v>
+        <v>0.0202084524615178</v>
       </c>
       <c r="T5">
-        <v>0.09008131459364321</v>
+        <v>0.0215351472343919</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.522573029932645</v>
+        <v>0.386502</v>
       </c>
       <c r="H6">
-        <v>0.522573029932645</v>
+        <v>0.773004</v>
       </c>
       <c r="I6">
-        <v>0.3153367410215326</v>
+        <v>0.2023774294220003</v>
       </c>
       <c r="J6">
-        <v>0.3153367410215326</v>
+        <v>0.1704859662986497</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.093106289003298</v>
+        <v>1.095428</v>
       </c>
       <c r="N6">
-        <v>0.093106289003298</v>
+        <v>2.190856</v>
       </c>
       <c r="O6">
-        <v>0.0575277480178632</v>
+        <v>0.5897096307895137</v>
       </c>
       <c r="P6">
-        <v>0.0575277480178632</v>
+        <v>0.4973191577842487</v>
       </c>
       <c r="Q6">
-        <v>0.04865483555023794</v>
+        <v>0.4233851128560001</v>
       </c>
       <c r="R6">
-        <v>0.04865483555023794</v>
+        <v>1.693540451424</v>
       </c>
       <c r="S6">
-        <v>0.01814061257826092</v>
+        <v>0.1193439191845787</v>
       </c>
       <c r="T6">
-        <v>0.01814061257826092</v>
+        <v>0.08478593717367827</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,247 +835,929 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.522573029932645</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H7">
-        <v>0.522573029932645</v>
+        <v>2.079365</v>
       </c>
       <c r="I7">
-        <v>0.3153367410215326</v>
+        <v>0.3629274393837356</v>
       </c>
       <c r="J7">
-        <v>0.3153367410215326</v>
+        <v>0.4586037734767113</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>1.06301215749774</v>
+        <v>0.07195550000000001</v>
       </c>
       <c r="N7">
-        <v>1.06301215749774</v>
+        <v>0.143911</v>
       </c>
       <c r="O7">
-        <v>0.6568052082313038</v>
+        <v>0.03873632163709057</v>
       </c>
       <c r="P7">
-        <v>0.6568052082313038</v>
+        <v>0.03266745843446078</v>
       </c>
       <c r="Q7">
-        <v>0.555501483998832</v>
+        <v>0.04987391608583334</v>
       </c>
       <c r="R7">
-        <v>0.555501483998832</v>
+        <v>0.299243496515</v>
       </c>
       <c r="S7">
-        <v>0.2071148138496285</v>
+        <v>0.01405847402289407</v>
       </c>
       <c r="T7">
-        <v>0.2071148138496285</v>
+        <v>0.01498141970793734</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7516506306323441</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H8">
-        <v>0.7516506306323441</v>
+        <v>2.079365</v>
       </c>
       <c r="I8">
-        <v>0.4535692557285884</v>
+        <v>0.3629274393837356</v>
       </c>
       <c r="J8">
-        <v>0.4535692557285884</v>
+        <v>0.4586037734767113</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.462340335761517</v>
+        <v>0.4691353333333333</v>
       </c>
       <c r="N8">
-        <v>0.462340335761517</v>
+        <v>1.407406</v>
       </c>
       <c r="O8">
-        <v>0.2856670437508328</v>
+        <v>0.2525529968289247</v>
       </c>
       <c r="P8">
-        <v>0.2856670437508328</v>
+        <v>0.3194778509315529</v>
       </c>
       <c r="Q8">
-        <v>0.3475184049419139</v>
+        <v>0.3251678641322222</v>
       </c>
       <c r="R8">
-        <v>0.3475184049419139</v>
+        <v>2.92651077719</v>
       </c>
       <c r="S8">
-        <v>0.1295697884202514</v>
+        <v>0.09165841244781034</v>
       </c>
       <c r="T8">
-        <v>0.1295697884202514</v>
+        <v>0.1465137479794404</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7516506306323441</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H9">
-        <v>0.7516506306323441</v>
+        <v>2.079365</v>
       </c>
       <c r="I9">
-        <v>0.4535692557285884</v>
+        <v>0.3629274393837356</v>
       </c>
       <c r="J9">
-        <v>0.4535692557285884</v>
+        <v>0.4586037734767113</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.093106289003298</v>
+        <v>0.03556466666666667</v>
       </c>
       <c r="N9">
-        <v>0.093106289003298</v>
+        <v>0.106694</v>
       </c>
       <c r="O9">
-        <v>0.0575277480178632</v>
+        <v>0.01914578269786067</v>
       </c>
       <c r="P9">
-        <v>0.0575277480178632</v>
+        <v>0.02421928699130962</v>
       </c>
       <c r="Q9">
-        <v>0.06998340084516622</v>
+        <v>0.02465064103444445</v>
       </c>
       <c r="R9">
-        <v>0.06998340084516622</v>
+        <v>0.22185576931</v>
       </c>
       <c r="S9">
-        <v>0.02609281785220399</v>
+        <v>0.006948529889532002</v>
       </c>
       <c r="T9">
-        <v>0.02609281785220399</v>
+        <v>0.01110705640513002</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7516506306323441</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H10">
-        <v>0.7516506306323441</v>
+        <v>2.079365</v>
       </c>
       <c r="I10">
-        <v>0.4535692557285884</v>
+        <v>0.3629274393837356</v>
       </c>
       <c r="J10">
-        <v>0.4535692557285884</v>
+        <v>0.4586037734767113</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.06301215749774</v>
+        <v>0.1854883333333334</v>
       </c>
       <c r="N10">
-        <v>1.06301215749774</v>
+        <v>0.5564650000000001</v>
       </c>
       <c r="O10">
-        <v>0.6568052082313038</v>
+        <v>0.09985526804661032</v>
       </c>
       <c r="P10">
-        <v>0.6568052082313038</v>
+        <v>0.1263162458584279</v>
       </c>
       <c r="Q10">
-        <v>0.7990137585530249</v>
+        <v>0.1285659827472223</v>
       </c>
       <c r="R10">
-        <v>0.7990137585530249</v>
+        <v>1.157093844725</v>
       </c>
       <c r="S10">
-        <v>0.297906649456133</v>
+        <v>0.03624021674113283</v>
       </c>
       <c r="T10">
-        <v>0.297906649456133</v>
+        <v>0.05792910700208706</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.6931216666666667</v>
+      </c>
+      <c r="H11">
+        <v>2.079365</v>
+      </c>
+      <c r="I11">
+        <v>0.3629274393837356</v>
+      </c>
+      <c r="J11">
+        <v>0.4586037734767113</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.095428</v>
+      </c>
+      <c r="N11">
+        <v>2.190856</v>
+      </c>
+      <c r="O11">
+        <v>0.5897096307895137</v>
+      </c>
+      <c r="P11">
+        <v>0.4973191577842487</v>
+      </c>
+      <c r="Q11">
+        <v>0.7592648810733335</v>
+      </c>
+      <c r="R11">
+        <v>4.555589286440001</v>
+      </c>
+      <c r="S11">
+        <v>0.2140218062823663</v>
+      </c>
+      <c r="T11">
+        <v>0.2280724423821164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.02138366666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.064151</v>
+      </c>
+      <c r="I12">
+        <v>0.011196763513816</v>
+      </c>
+      <c r="J12">
+        <v>0.01414849758089826</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.5</v>
+      </c>
+      <c r="M12">
+        <v>0.07195550000000001</v>
+      </c>
+      <c r="N12">
+        <v>0.143911</v>
+      </c>
+      <c r="O12">
+        <v>0.03873632163709057</v>
+      </c>
+      <c r="P12">
+        <v>0.03266745843446078</v>
+      </c>
+      <c r="Q12">
+        <v>0.001538672426833333</v>
+      </c>
+      <c r="R12">
+        <v>0.009232034561</v>
+      </c>
+      <c r="S12">
+        <v>0.0004337214327656172</v>
+      </c>
+      <c r="T12">
+        <v>0.0004621954566340628</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02138366666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.064151</v>
+      </c>
+      <c r="I13">
+        <v>0.011196763513816</v>
+      </c>
+      <c r="J13">
+        <v>0.01414849758089826</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.4691353333333333</v>
+      </c>
+      <c r="N13">
+        <v>1.407406</v>
+      </c>
+      <c r="O13">
+        <v>0.2525529968289247</v>
+      </c>
+      <c r="P13">
+        <v>0.3194778509315529</v>
+      </c>
+      <c r="Q13">
+        <v>0.01003183358955555</v>
+      </c>
+      <c r="R13">
+        <v>0.09028650230599999</v>
+      </c>
+      <c r="S13">
+        <v>0.002827776180198993</v>
+      </c>
+      <c r="T13">
+        <v>0.004520131601055651</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.02138366666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.064151</v>
+      </c>
+      <c r="I14">
+        <v>0.011196763513816</v>
+      </c>
+      <c r="J14">
+        <v>0.01414849758089826</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.03556466666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.106694</v>
+      </c>
+      <c r="O14">
+        <v>0.01914578269786067</v>
+      </c>
+      <c r="P14">
+        <v>0.02421928699130962</v>
+      </c>
+      <c r="Q14">
+        <v>0.0007605029771111111</v>
+      </c>
+      <c r="R14">
+        <v>0.006844526794</v>
+      </c>
+      <c r="S14">
+        <v>0.0002143708011548561</v>
+      </c>
+      <c r="T14">
+        <v>0.0003426665234076247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.02138366666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.064151</v>
+      </c>
+      <c r="I15">
+        <v>0.011196763513816</v>
+      </c>
+      <c r="J15">
+        <v>0.01414849758089826</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.1854883333333334</v>
+      </c>
+      <c r="N15">
+        <v>0.5564650000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.09985526804661032</v>
+      </c>
+      <c r="P15">
+        <v>0.1263162458584279</v>
+      </c>
+      <c r="Q15">
+        <v>0.003966420690555556</v>
+      </c>
+      <c r="R15">
+        <v>0.03569778621500001</v>
+      </c>
+      <c r="S15">
+        <v>0.001118055821926604</v>
+      </c>
+      <c r="T15">
+        <v>0.001787185098956117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02138366666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.064151</v>
+      </c>
+      <c r="I16">
+        <v>0.011196763513816</v>
+      </c>
+      <c r="J16">
+        <v>0.01414849758089826</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.095428</v>
+      </c>
+      <c r="N16">
+        <v>2.190856</v>
+      </c>
+      <c r="O16">
+        <v>0.5897096307895137</v>
+      </c>
+      <c r="P16">
+        <v>0.4973191577842487</v>
+      </c>
+      <c r="Q16">
+        <v>0.02342426720933333</v>
+      </c>
+      <c r="R16">
+        <v>0.140545603256</v>
+      </c>
+      <c r="S16">
+        <v>0.006602839277769933</v>
+      </c>
+      <c r="T16">
+        <v>0.007036318900844801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.8088005</v>
+      </c>
+      <c r="H17">
+        <v>1.617601</v>
+      </c>
+      <c r="I17">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J17">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.07195550000000001</v>
+      </c>
+      <c r="N17">
+        <v>0.143911</v>
+      </c>
+      <c r="O17">
+        <v>0.03873632163709057</v>
+      </c>
+      <c r="P17">
+        <v>0.03266745843446078</v>
+      </c>
+      <c r="Q17">
+        <v>0.05819764437775</v>
+      </c>
+      <c r="R17">
+        <v>0.232790577511</v>
+      </c>
+      <c r="S17">
+        <v>0.01640476898325268</v>
+      </c>
+      <c r="T17">
+        <v>0.01165450005216936</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.8088005</v>
+      </c>
+      <c r="H18">
+        <v>1.617601</v>
+      </c>
+      <c r="I18">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J18">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.4691353333333333</v>
+      </c>
+      <c r="N18">
+        <v>1.407406</v>
+      </c>
+      <c r="O18">
+        <v>0.2525529968289247</v>
+      </c>
+      <c r="P18">
+        <v>0.3194778509315529</v>
+      </c>
+      <c r="Q18">
+        <v>0.3794368921676666</v>
+      </c>
+      <c r="R18">
+        <v>2.276621353006</v>
+      </c>
+      <c r="S18">
+        <v>0.106955781909855</v>
+      </c>
+      <c r="T18">
+        <v>0.113977481223975</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.8088005</v>
+      </c>
+      <c r="H19">
+        <v>1.617601</v>
+      </c>
+      <c r="I19">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J19">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.03556466666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.106694</v>
+      </c>
+      <c r="O19">
+        <v>0.01914578269786067</v>
+      </c>
+      <c r="P19">
+        <v>0.02421928699130962</v>
+      </c>
+      <c r="Q19">
+        <v>0.02876472018233334</v>
+      </c>
+      <c r="R19">
+        <v>0.172588321094</v>
+      </c>
+      <c r="S19">
+        <v>0.008108207720508562</v>
+      </c>
+      <c r="T19">
+        <v>0.008640515516994235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.8088005</v>
+      </c>
+      <c r="H20">
+        <v>1.617601</v>
+      </c>
+      <c r="I20">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J20">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.1854883333333334</v>
+      </c>
+      <c r="N20">
+        <v>0.5564650000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.09985526804661032</v>
+      </c>
+      <c r="P20">
+        <v>0.1263162458584279</v>
+      </c>
+      <c r="Q20">
+        <v>0.1500230567441667</v>
+      </c>
+      <c r="R20">
+        <v>0.9001383404650002</v>
+      </c>
+      <c r="S20">
+        <v>0.04228854302203308</v>
+      </c>
+      <c r="T20">
+        <v>0.04506480652299285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.8088005</v>
+      </c>
+      <c r="H21">
+        <v>1.617601</v>
+      </c>
+      <c r="I21">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J21">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.095428</v>
+      </c>
+      <c r="N21">
+        <v>2.190856</v>
+      </c>
+      <c r="O21">
+        <v>0.5897096307895137</v>
+      </c>
+      <c r="P21">
+        <v>0.4973191577842487</v>
+      </c>
+      <c r="Q21">
+        <v>0.8859827141140001</v>
+      </c>
+      <c r="R21">
+        <v>3.543930856456</v>
+      </c>
+      <c r="S21">
+        <v>0.2497410660447988</v>
+      </c>
+      <c r="T21">
+        <v>0.1774244593276091</v>
       </c>
     </row>
   </sheetData>
